--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="332">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,324 +284,328 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {questionnaireresponse-signature}
+</t>
+  </si>
+  <si>
+    <t>A signature attesting to the content</t>
+  </si>
+  <si>
+    <t>Represents a wet or electronic signature for either the form overall or for the question or item it's associated with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>completionMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {questionnaireresponse-completionMode}
+</t>
+  </si>
+  <si>
+    <t>E.g. Verbal, written, electronic</t>
+  </si>
+  <si>
+    <t>Indicates how the individual completing the QuestionnaireResponse provided their responses.</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique id for this set of answers</t>
+  </si>
+  <si>
+    <t>A business identifier assigned to a particular completed (or partially completed) questionnaire.</t>
+  </si>
+  <si>
+    <t>Used for tracking, registration and other business purposes.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>The order, proposal or plan that is fulfilled in whole or in part by this QuestionnaireResponse.  For example, a ServiceRequest seeking an intake assessment or a decision support recommendation to assess for post-partum depression.</t>
+  </si>
+  <si>
+    <t>Supports traceability of responsibility for the action and allows linkage of an action to the recommendations acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation|Procedure)
+</t>
+  </si>
+  <si>
+    <t>Part of this action</t>
+  </si>
+  <si>
+    <t>A procedure or observation that this questionnaire was performed as part of the execution of.  For example, the surgery a checklist was executed as part of.</t>
+  </si>
+  <si>
+    <t>Composition of questionnaire responses will be handled by the parent questionnaire having answers that reference the child questionnaire.  For relationships to referrals, and other types of requests, use basedOn.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire)
+</t>
+  </si>
+  <si>
+    <t>Form being answered</t>
+  </si>
+  <si>
+    <t>The Questionnaire that defines and organizes the questions for which answers are being provided.</t>
+  </si>
+  <si>
+    <t>For SDC, this SHALL be the version-specific URL of the form as hosted on the Form Manager.</t>
+  </si>
+  <si>
+    <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[typeCode=INST]/target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.questionnaire.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {questionnaireresponse-signature}
-</t>
-  </si>
-  <si>
-    <t>A signature attesting to the content</t>
-  </si>
-  <si>
-    <t>Represents a wet or electronic signature for either the form overall or for the question or item it's associated with.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>completionMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {questionnaireresponse-completionMode}
-</t>
-  </si>
-  <si>
-    <t>E.g. Verbal, written, electronic</t>
-  </si>
-  <si>
-    <t>Indicates how the individual completing the QuestionnaireResponse provided their responses.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique id for this set of answers</t>
-  </si>
-  <si>
-    <t>A business identifier assigned to a particular completed (or partially completed) questionnaire.</t>
-  </si>
-  <si>
-    <t>Used for tracking, registration and other business purposes.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>The order, proposal or plan that is fulfilled in whole or in part by this QuestionnaireResponse.  For example, a ServiceRequest seeking an intake assessment or a decision support recommendation to assess for post-partum depression.</t>
-  </si>
-  <si>
-    <t>Supports traceability of responsibility for the action and allows linkage of an action to the recommendations acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
-</t>
-  </si>
-  <si>
-    <t>Part of this action</t>
-  </si>
-  <si>
-    <t>A procedure or observation that this questionnaire was performed as part of the execution of.  For example, the surgery a checklist was executed as part of.</t>
-  </si>
-  <si>
-    <t>Composition of questionnaire responses will be handled by the parent questionnaire having answers that reference the child questionnaire.  For relationships to referrals, and other types of requests, use basedOn.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire)
-</t>
-  </si>
-  <si>
-    <t>Form being answered</t>
-  </si>
-  <si>
-    <t>The Questionnaire that defines and organizes the questions for which answers are being provided.</t>
-  </si>
-  <si>
-    <t>For SDC, this SHALL be the version-specific URL of the form as hosted on the Form Manager.</t>
-  </si>
-  <si>
-    <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
-  </si>
-  <si>
-    <t>Event.instantiates</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[typeCode=INST]/target[classCode=OBS, moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.questionnaire.id</t>
   </si>
   <si>
     <t>xml:id (or equivalent in JSON)</t>
@@ -1384,40 +1388,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.93359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="58.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="50.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="50.4609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.64453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="111.80859375" customWidth="true" bestFit="true"/>
@@ -3183,13 +3187,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3240,7 +3244,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3266,7 +3270,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3344,7 +3348,7 @@
         <v>135</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3370,10 +3374,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>78</v>
@@ -3395,16 +3399,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3454,7 +3458,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3480,7 +3484,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3503,13 +3507,13 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3560,7 +3564,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3586,7 +3590,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3612,16 +3616,16 @@
         <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -3646,13 +3650,13 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>78</v>
@@ -3670,7 +3674,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>86</v>
@@ -3685,22 +3689,22 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3719,19 +3723,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -3780,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3795,18 +3799,18 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3829,19 +3833,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -3890,7 +3894,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3905,22 +3909,22 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3939,19 +3943,19 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4000,7 +4004,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4015,22 +4019,22 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4049,19 +4053,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4110,7 +4114,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4125,18 +4129,18 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4159,19 +4163,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4220,7 +4224,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4238,15 +4242,15 @@
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4269,16 +4273,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4328,7 +4332,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4340,13 +4344,13 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4354,7 +4358,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4377,13 +4381,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4434,7 +4438,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4452,7 +4456,7 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4460,7 +4464,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4538,7 +4542,7 @@
         <v>135</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4564,10 +4568,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>78</v>
@@ -4589,13 +4593,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4646,7 +4650,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4672,10 +4676,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>78</v>
@@ -4754,7 +4758,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4780,11 +4784,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4806,10 +4810,10 @@
         <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>151</v>
@@ -4864,7 +4868,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4890,7 +4894,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4913,17 +4917,17 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -4972,7 +4976,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>86</v>
@@ -4990,7 +4994,7 @@
         <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -4998,7 +5002,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5024,16 +5028,16 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5082,7 +5086,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5100,7 +5104,7 @@
         <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5131,17 +5135,17 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5190,7 +5194,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5208,7 +5212,7 @@
         <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5216,7 +5220,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5239,16 +5243,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5298,7 +5302,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5316,7 +5320,7 @@
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5324,7 +5328,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5347,13 +5351,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5404,7 +5408,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5422,7 +5426,7 @@
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5430,7 +5434,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5508,7 +5512,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5534,10 +5538,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>78</v>
@@ -5559,13 +5563,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5616,7 +5620,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5642,10 +5646,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>78</v>
@@ -5667,16 +5671,16 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5726,7 +5730,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5752,11 +5756,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5778,10 +5782,10 @@
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>151</v>
@@ -5836,7 +5840,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5862,7 +5866,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5885,19 +5889,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -5922,13 +5926,13 @@
         <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>78</v>
@@ -5946,7 +5950,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5964,7 +5968,7 @@
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -5972,7 +5976,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5998,14 +6002,14 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -6054,7 +6058,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6072,7 +6076,7 @@
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6080,7 +6084,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6106,14 +6110,14 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6162,7 +6166,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6180,7 +6184,7 @@
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="331">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdcqr-1:Subject SHOULD be present (searching is difficult without subject).  Almost all QuestionnaireResponses should be with respect to some sort of subject. {subject.exists()}sdcqr-2:When repeats=true for a group, it'll be represented with multiple items with the same linkId in the QuestionnaireResponse.  For a question, it'll be represented by a single item with that linkId with multiple answers. {(QuestionnaireResponse|repeat(answer|item)).select(item.where(answer.value.exists()).linkId.isDistinct()).allTrue()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1640,13 +1636,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -1654,7 +1650,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1665,28 +1661,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1736,13 +1732,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -1762,7 +1758,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1773,25 +1769,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1842,19 +1838,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -1868,7 +1864,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1879,28 +1875,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1950,19 +1946,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -1976,7 +1972,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1987,7 +1983,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -1999,16 +1995,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2034,43 +2030,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2084,18 +2080,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2107,16 +2103,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2166,25 +2162,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -2192,11 +2188,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2215,16 +2211,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2274,7 +2270,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2292,7 +2288,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -2300,7 +2296,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2323,13 +2319,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2368,17 +2364,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2390,7 +2386,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2404,10 +2400,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -2429,13 +2425,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2486,7 +2482,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2495,10 +2491,10 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -2512,10 +2508,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -2525,7 +2521,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -2537,13 +2533,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2594,7 +2590,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2603,10 +2599,10 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -2620,11 +2616,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2637,25 +2633,25 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -2704,7 +2700,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2716,13 +2712,13 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
@@ -2730,7 +2726,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2741,29 +2737,29 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -2812,37 +2808,37 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2858,20 +2854,20 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -2920,7 +2916,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2932,13 +2928,13 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -2946,7 +2942,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2966,19 +2962,19 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3028,7 +3024,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3040,13 +3036,13 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -3054,42 +3050,42 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3138,25 +3134,25 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -3164,7 +3160,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3175,7 +3171,7 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3187,13 +3183,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3244,13 +3240,13 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
@@ -3270,7 +3266,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3293,13 +3289,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3338,17 +3334,17 @@
         <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3360,7 +3356,7 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -3374,10 +3370,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>78</v>
@@ -3387,11 +3383,11 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3399,16 +3395,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3458,7 +3454,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3467,10 +3463,10 @@
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -3484,7 +3480,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3495,7 +3491,7 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3507,13 +3503,13 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3564,13 +3560,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -3590,7 +3586,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3598,34 +3594,34 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="H21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -3650,92 +3646,92 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -3784,33 +3780,33 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3821,31 +3817,31 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -3894,68 +3890,68 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4004,68 +4000,68 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4114,33 +4110,33 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4151,31 +4147,31 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4224,33 +4220,33 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4264,7 +4260,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4273,16 +4269,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4332,7 +4328,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4344,13 +4340,13 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4358,7 +4354,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4369,7 +4365,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -4381,13 +4377,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4438,13 +4434,13 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
@@ -4456,7 +4452,7 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4464,7 +4460,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4487,13 +4483,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4532,17 +4528,17 @@
         <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4554,7 +4550,7 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -4568,10 +4564,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>78</v>
@@ -4581,7 +4577,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -4593,13 +4589,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4650,7 +4646,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4659,10 +4655,10 @@
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -4676,10 +4672,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>78</v>
@@ -4701,13 +4697,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4758,7 +4754,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4767,10 +4763,10 @@
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -4784,11 +4780,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4801,25 +4797,25 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="M32" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -4868,7 +4864,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4880,13 +4876,13 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -4894,7 +4890,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4902,14 +4898,14 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
@@ -4917,17 +4913,17 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -4976,25 +4972,25 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -5002,7 +4998,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5013,7 +5009,7 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5025,19 +5021,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5086,25 +5082,25 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5112,7 +5108,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5123,11 +5119,11 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5135,17 +5131,17 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5194,25 +5190,25 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5220,7 +5216,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5234,7 +5230,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5243,16 +5239,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5302,7 +5298,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5314,13 +5310,13 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5328,7 +5324,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5339,7 +5335,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -5351,13 +5347,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5408,13 +5404,13 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
@@ -5426,7 +5422,7 @@
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5434,7 +5430,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5457,13 +5453,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5502,17 +5498,17 @@
         <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5524,7 +5520,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -5538,10 +5534,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>78</v>
@@ -5551,7 +5547,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -5563,13 +5559,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5620,7 +5616,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5629,10 +5625,10 @@
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -5646,10 +5642,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>78</v>
@@ -5659,7 +5655,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -5671,16 +5667,16 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5730,7 +5726,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5739,10 +5735,10 @@
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -5756,11 +5752,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5773,25 +5769,25 @@
         <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="M41" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -5840,7 +5836,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5852,13 +5848,13 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
@@ -5866,7 +5862,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5877,11 +5873,11 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
@@ -5889,19 +5885,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -5926,49 +5922,49 @@
         <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="X42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="X42" t="s" s="2">
+      <c r="Y42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -5976,7 +5972,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5990,7 +5986,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6002,14 +5998,14 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -6058,7 +6054,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6070,13 +6066,13 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6084,7 +6080,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6098,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6110,14 +6106,14 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6166,7 +6162,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6178,13 +6174,13 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Describes the logical structure for a questionnaire response associacted to a [DDCC Questionaire](StructureDefinition-DDCCQuestionnaire.html). </t>
+    <t>Describes the logical structure for a questionnaire response associacted to a [DDCC Questionaire](StructureDefinition-DDCCQuestionnaire.html).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
